--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>87.52000886463766</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>122.3238612539563</v>
       </c>
       <c r="D2">
-        <v>142</v>
+        <v>141.4310488244865</v>
       </c>
       <c r="E2">
-        <v>154</v>
+        <v>154.0928370029275</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>109</v>
+        <v>108.6750916094591</v>
       </c>
       <c r="C3">
-        <v>151</v>
+        <v>151.0257897479978</v>
       </c>
       <c r="D3">
-        <v>171</v>
+        <v>171.0166763028857</v>
       </c>
       <c r="E3">
-        <v>186</v>
+        <v>185.9038688915234</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>88.89773292123303</v>
       </c>
       <c r="C4">
-        <v>127</v>
+        <v>126.4672401468646</v>
       </c>
       <c r="D4">
-        <v>148</v>
+        <v>147.9905732170969</v>
       </c>
       <c r="E4">
-        <v>166</v>
+        <v>165.5804725489884</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>77.18715505475731</v>
       </c>
       <c r="C5">
-        <v>106</v>
+        <v>106.3103909170766</v>
       </c>
       <c r="D5">
-        <v>117</v>
+        <v>116.8595139535432</v>
       </c>
       <c r="E5">
-        <v>126</v>
+        <v>125.956289484215</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>67.25326813445629</v>
       </c>
       <c r="C6">
-        <v>92</v>
+        <v>92.26178911390346</v>
       </c>
       <c r="D6">
-        <v>102</v>
+        <v>102.3139385843235</v>
       </c>
       <c r="E6">
-        <v>109</v>
+        <v>109.2804573964136</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>7.400791066150671</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>10.071140552069</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>11.1905147623712</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>11.79948541821851</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>353</v>
+        <v>353.1640303372616</v>
       </c>
       <c r="C8">
-        <v>494</v>
+        <v>493.2740685376367</v>
       </c>
       <c r="D8">
-        <v>566</v>
+        <v>565.1268577930598</v>
       </c>
       <c r="E8">
-        <v>603</v>
+        <v>602.5235190325914</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>102.4334863009774</v>
       </c>
       <c r="C9">
-        <v>141</v>
+        <v>140.362942969836</v>
       </c>
       <c r="D9">
-        <v>155</v>
+        <v>155.143863274867</v>
       </c>
       <c r="E9">
-        <v>164</v>
+        <v>164.274537571003</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>44.46686990261082</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>59.02903619500883</v>
       </c>
       <c r="D10">
-        <v>66</v>
+        <v>65.55865434390834</v>
       </c>
       <c r="E10">
-        <v>68</v>
+        <v>67.50467295181468</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>8.101745782040659</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>10.19151698997291</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>11.18548547597686</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>12.43537387220275</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>18.44521984358384</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>24.62685994101061</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>26.16350002395977</v>
       </c>
       <c r="E12">
-        <v>26</v>
+        <v>26.13346335982067</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>24.93231680160065</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>32.76012645591509</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>36.65814988539523</v>
       </c>
       <c r="E13">
-        <v>38</v>
+        <v>38.16989894895444</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>87.52000886463766</v>
+        <v>88.57554499379933</v>
       </c>
       <c r="C2">
-        <v>122.3238612539563</v>
+        <v>123.6189408115317</v>
       </c>
       <c r="D2">
-        <v>141.4310488244865</v>
+        <v>142.6917440762746</v>
       </c>
       <c r="E2">
-        <v>154.0928370029275</v>
+        <v>155.3902138438933</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>108.6750916094591</v>
+        <v>110.0413097136072</v>
       </c>
       <c r="C3">
-        <v>151.0257897479978</v>
+        <v>152.6961637409976</v>
       </c>
       <c r="D3">
-        <v>171.0166763028857</v>
+        <v>172.588039479098</v>
       </c>
       <c r="E3">
-        <v>185.9038688915234</v>
+        <v>187.5057914326663</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>88.89773292123303</v>
+        <v>89.88959294295074</v>
       </c>
       <c r="C4">
-        <v>126.4672401468646</v>
+        <v>127.6994382095966</v>
       </c>
       <c r="D4">
-        <v>147.9905732170969</v>
+        <v>149.2252560928734</v>
       </c>
       <c r="E4">
-        <v>165.5804725489884</v>
+        <v>166.9041835482289</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>77.18715505475731</v>
+        <v>78.20823992444279</v>
       </c>
       <c r="C5">
-        <v>106.3103909170766</v>
+        <v>107.5546739317773</v>
       </c>
       <c r="D5">
-        <v>116.8595139535432</v>
+        <v>117.9853275631305</v>
       </c>
       <c r="E5">
-        <v>125.956289484215</v>
+        <v>127.0799969476143</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>67.25326813445629</v>
+        <v>68.13224939828254</v>
       </c>
       <c r="C6">
-        <v>92.26178911390346</v>
+        <v>93.32684272659071</v>
       </c>
       <c r="D6">
-        <v>102.3139385843235</v>
+        <v>103.2869828730602</v>
       </c>
       <c r="E6">
-        <v>109.2804573964136</v>
+        <v>110.2448819789014</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.400791066150671</v>
+        <v>7.500689620578088</v>
       </c>
       <c r="C7">
-        <v>10.071140552069</v>
+        <v>10.19165665066588</v>
       </c>
       <c r="D7">
-        <v>11.1905147623712</v>
+        <v>11.30057310237215</v>
       </c>
       <c r="E7">
-        <v>11.79948541821851</v>
+        <v>11.90686587437852</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>353.1640303372616</v>
+        <v>357.5087543888388</v>
       </c>
       <c r="C8">
-        <v>493.2740685376367</v>
+        <v>498.6223757263424</v>
       </c>
       <c r="D8">
-        <v>565.1268577930598</v>
+        <v>570.2055557300474</v>
       </c>
       <c r="E8">
-        <v>602.5235190325914</v>
+        <v>607.5443106949087</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>102.4334863009774</v>
+        <v>103.8176863823793</v>
       </c>
       <c r="C9">
-        <v>140.362942969836</v>
+        <v>142.046561702182</v>
       </c>
       <c r="D9">
-        <v>155.143863274867</v>
+        <v>156.672731131525</v>
       </c>
       <c r="E9">
-        <v>164.274537571003</v>
+        <v>165.7721082886922</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>44.46686990261082</v>
+        <v>45.09870525976798</v>
       </c>
       <c r="C10">
-        <v>59.02903619500883</v>
+        <v>59.77999993856822</v>
       </c>
       <c r="D10">
-        <v>65.55865434390834</v>
+        <v>66.24199612605035</v>
       </c>
       <c r="E10">
-        <v>67.50467295181468</v>
+        <v>68.15378775929922</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8.101745782040659</v>
+        <v>8.21680987508913</v>
       </c>
       <c r="C11">
-        <v>10.19151698997291</v>
+        <v>10.32116948848634</v>
       </c>
       <c r="D11">
-        <v>11.18548547597686</v>
+        <v>11.30215317346981</v>
       </c>
       <c r="E11">
-        <v>12.43537387220275</v>
+        <v>12.55506788507774</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18.44521984358384</v>
+        <v>18.72333084311544</v>
       </c>
       <c r="C12">
-        <v>24.62685994101061</v>
+        <v>24.96440692415187</v>
       </c>
       <c r="D12">
-        <v>26.16350002395977</v>
+        <v>26.45831461349329</v>
       </c>
       <c r="E12">
-        <v>26.13346335982067</v>
+        <v>26.40479109669189</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24.93231680160065</v>
+        <v>25.28708665714868</v>
       </c>
       <c r="C13">
-        <v>32.76012645591509</v>
+        <v>33.17777014910926</v>
       </c>
       <c r="D13">
-        <v>36.65814988539523</v>
+        <v>37.04132603860492</v>
       </c>
       <c r="E13">
-        <v>38.16989894895444</v>
+        <v>38.53800064964739</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV_Fiets.xlsx
@@ -459,7 +459,7 @@
         <v>68.13224939828254</v>
       </c>
       <c r="C6">
-        <v>93.32684272659071</v>
+        <v>93.32684272659068</v>
       </c>
       <c r="D6">
         <v>103.2869828730602</v>
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>357.5087543888388</v>
+        <v>357.5087543888387</v>
       </c>
       <c r="C8">
         <v>498.6223757263424</v>
